--- a/data/EFE_1.xlsx
+++ b/data/EFE_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noack\gitCereq\cereq-dataviz\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71A46AB-D003-42BC-B8E5-C0D129244ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D33AF1D-6444-4CF0-99FD-6B82F2093D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B09D408-3467-4768-B932-C4A0C5887791}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$AD$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$AF$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="65">
   <si>
     <t>tx_acc</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>données non disponibles</t>
+  </si>
+  <si>
+    <t>ns_heurstag</t>
+  </si>
+  <si>
+    <t>ns_heurstag_sal</t>
   </si>
 </sst>
 </file>
@@ -569,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D67E0D5-0D91-496C-8EBB-F9438E001284}">
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AE48" sqref="AE48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,18 +592,21 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,70 +635,76 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>39.647741999941147</v>
       </c>
@@ -718,70 +733,76 @@
         <v>28.284574600325335</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>14.661036626664176</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>51.189307067150395</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>20.832844679132702</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>11.186782908658843</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>53.348379965252647</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>40.788458417173032</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>34.523966316211045</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>60.488506078979277</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>32.986336116109591</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>29.40886178912654</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14.286113602211412</v>
       </c>
@@ -810,70 +831,76 @@
         <v>30.955639992262302</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>13.135202063897076</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>47.473424978124058</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>26.971612966236975</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>11.274131158107899</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>47.710134841477128</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>47.20221764306811</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>37.258284636947792</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>61.24143477349925</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>32.658414436944788</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>28.321061748499098</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>52.590874566163116</v>
       </c>
@@ -902,70 +929,76 @@
         <v>20.134089685132071</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>12.066898853907263</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>69.485734802539241</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>27.032207093446718</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>15.771132802379444</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>49.176922068770622</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>41.085553636655206</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>33.516545634799336</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>67.252646583210506</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>36.185657028813132</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>33.684331031273125</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>27.306824298269426</v>
       </c>
@@ -994,70 +1027,76 @@
         <v>54.984550590773502</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>26.411763934316156</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>60.663196090515711</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>21.392077689144291</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>12.938600259674452</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>43.968471582975496</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>43.649211780079192</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>28.877622869232066</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>58.358034600159016</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>30.745327066066984</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>30.056473556478132</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38.569528542375814</v>
       </c>
@@ -1086,70 +1125,76 @@
         <v>29.136032021994861</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>14.902905324714537</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>47.845557811985998</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>18.166806035613256</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>11.510266828811663</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>53.65346805373138</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>39.225646431714161</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>36.943588151412662</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>61.26543325350837</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>33.578536833857513</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>30.70870667599868</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>39.5277371176808</v>
       </c>
@@ -1178,70 +1223,76 @@
         <v>26.518495669430045</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>12.192634200038137</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>59.940684792831824</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>24.030017460892438</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>14.294124466340266</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>69.648213309155992</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>45.923959787671535</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>33.912199539603677</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>50.50728079958904</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>33.247135174760139</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>31.4062739937999</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14.888714122513624</v>
       </c>
@@ -1270,70 +1321,76 @@
         <v>86.885690455228485</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>44.957903361540694</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>46.13014194776747</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>17.997790403009574</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>9.1433752374263868</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>48.674143518598136</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>39.627461117795725</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>33.893530907851513</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>60.430681635131769</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>32.558204582478155</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>28.409160393486587</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.482063953178509</v>
       </c>
@@ -1362,70 +1419,76 @@
         <v>41.186872965390052</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>16.369573762876449</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>47.529611644951132</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>24.881015822962031</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>11.637431057590156</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>47.921097720457347</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>46.146297605059203</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>41.175822222260074</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>60.764837788438328</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>31.993828387829993</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>28.490302936601207</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9.2627550890334209</v>
       </c>
@@ -1454,70 +1517,76 @@
         <v>41.460614371478982</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>15.195250201271424</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>69.723678420072886</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>16.780644676616113</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>13.288770192471222</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>39.726172172148857</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>33.638840796004843</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>29.875870159822483</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>66.844520020903261</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>32.961710203759381</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>30.988262168746527</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12.409823595868446</v>
       </c>
@@ -1546,70 +1615,76 @@
         <v>212.63120650993145</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>115.48555855763664</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>57.694396195986428</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>17.027880568547989</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>12.452879416741224</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>44.531876613076228</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>38.409781468072637</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>24.871451092124321</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>57.832062446427088</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>30.149788797646369</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>29.218008897367259</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15.921472031489978</v>
       </c>
@@ -1638,70 +1713,76 @@
         <v>78.473894342066743</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>41.744241026246414</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>43.767793396178348</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>15.629274077571617</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>9.7073610691581802</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>50.248322160394665</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>38.340978244272243</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>36.564903838859941</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>61.413142511027772</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>33.394098373535527</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>29.820839563887969</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20.337085277078927</v>
       </c>
@@ -1730,70 +1811,76 @@
         <v>24.792028028230167</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>13.721874245672662</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>54.23905393774772</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>22.295415712631648</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>11.246618943844714</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>66.141590850306486</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>42.232937687985206</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>30.180779644881543</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>50.497264903406794</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>32.029602656099591</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>30.905515308022725</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>25.139268421673002</v>
       </c>
@@ -1822,70 +1909,76 @@
         <v>31.660237622680963</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>11.950865502190222</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>59.076189129642401</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>23.564155446426888</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>17.579844396611904</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>58.673403654464536</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>43.609066246670807</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>37.787315135084434</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>62.17677776134456</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>49.458914473438234</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>41.586243044962444</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1911,73 +2004,79 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>27.046473641251268</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>10.150789461244006</v>
-      </c>
-      <c r="K15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>48.145045563435133</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>44.326979119883156</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>9.5423705944376156</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>53.732451715241972</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>43.18326782640429</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>33.487263581320839</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>90.722835725842614</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>72.262631357090797</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>16.426433423634801</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>27.400752097736085</v>
       </c>
@@ -2006,70 +2105,76 @@
         <v>23.986199108322683</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>9.5070091840407525</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>65.14527423122135</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>27.982652180624491</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>16.027039155114124</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>58.999841375184005</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>45.328222999836612</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>33.167825876621279</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>71.058926160663304</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>60.153035541044133</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>53.706834777177235</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21.404523864262138</v>
       </c>
@@ -2098,70 +2203,76 @@
         <v>26.062772398120632</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>8.9435689284904143</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>64.344162614162073</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>29.352007308349808</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>14.424408789288037</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>51.59120978730536</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>42.848140163587971</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>36.455695589390402</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>68.152137972448784</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>51.335627864324231</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>44.688275893369109</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24.84016061273535</v>
       </c>
@@ -2190,70 +2301,76 @@
         <v>33.868801786050184</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>12.727643088187378</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>56.079515489390687</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>20.499888542061985</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>19.683878926602322</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>58.452063498692439</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>42.424959502671832</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>40.437992470134787</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>57.79595187120804</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <v>50.1313611831497</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>36.968910745312812</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30.713679386849478</v>
       </c>
@@ -2282,70 +2399,76 @@
         <v>35.734364726129058</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>14.309239723895763</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>63.147673211989463</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>26.018987793586923</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>19.3724198883389</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>69.717651717816636</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>49.468155729945131</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>41.417016098139257</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>61.117557447704876</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>53.720407889384362</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>43.975636844487795</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AE19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>41.467163971024931</v>
       </c>
@@ -2374,70 +2497,76 @@
         <v>23.609447293193799</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>10.799432364014288</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>65.635433801892106</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>33.498514733405095</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>30.261661449794815</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>68.826994029392424</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>40.859885964533738</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>34.983077598278165</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>64.810059543163973</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <v>51.564307368081174</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>49.349148322205465</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AE20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2463,68 +2592,74 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>12.057079455983796</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.7397975216498365</v>
-      </c>
-      <c r="K21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>68.203222436537175</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>67.090904933912967</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>22.063963136514744</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>100</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>49.542742984186013</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>47.977558178824182</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y21" s="1"/>
-      <c r="Z21">
+      <c r="AA21" s="1"/>
+      <c r="AB21">
         <v>100</v>
       </c>
-      <c r="AA21">
+      <c r="AC21">
         <v>100</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>46.700610600755219</v>
       </c>
@@ -2553,70 +2688,76 @@
         <v>23.367530622460531</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>11.320835988912135</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>76.75882711661157</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>40.04594740368065</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>24.930628074834523</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>67.104194295765026</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>46.569756078938269</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>37.114847579828599</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="AA22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>55.000116624210236</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <v>49.103142324434785</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>45.734212736710354</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AE22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2645,70 +2786,76 @@
         <v>21.689165889223876</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>10.776581895286547</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>84.541147663475527</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>34.966271215616352</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>11.373926882443602</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>68.222412798140482</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>37.02348757336766</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>31.42089304509549</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <v>66.078057568958144</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>33.921942431041856</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>32.156115137916288</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AE23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AF23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>40.322252021218439</v>
       </c>
@@ -2737,70 +2884,76 @@
         <v>23.792635850782098</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>10.823354985012211</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>60.006539086953758</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>33.837735055744709</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>33.749922145933994</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>66.571763792102487</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>38.491554132521365</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>37.563169745653532</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="Y24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="AA24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z24">
+      <c r="AB24">
         <v>65.096521756671038</v>
       </c>
-      <c r="AA24">
+      <c r="AC24">
         <v>59.644929195489901</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>50.943641001859774</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AE24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD24" s="1" t="s">
+      <c r="AF24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>39.00262875697225</v>
       </c>
@@ -2829,70 +2982,76 @@
         <v>24.32635567420833</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>10.252454522818562</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>69.146291847948305</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>29.356681395875828</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>24.524576872589055</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="U25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>77.935879164661088</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>48.556277585189022</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>30.142373704351982</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="Y25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="Z25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="AA25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>91.132365333319697</v>
       </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>62.303704814830738</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>40.330522811521803</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AE25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD25" s="1" t="s">
+      <c r="AF25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>54.313410822870281</v>
       </c>
@@ -2921,70 +3080,76 @@
         <v>20.817291588646555</v>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>11.55812321103245</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>72.247365437141781</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>46.317774310750828</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>38.674910490794481</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="U26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>77.189524306615255</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>37.870114513884687</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>27.584280002632511</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="Y26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="Z26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z26">
+      <c r="AB26">
         <v>53.135291936587706</v>
       </c>
-      <c r="AA26">
+      <c r="AC26">
         <v>52.563834108344473</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <v>49.28089776150938</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AE26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD26" s="1" t="s">
+      <c r="AF26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3013,55 +3178,61 @@
         <v>20.098553020397464</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>10.635972367998587</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>78.091492325889149</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>53.900363096442369</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>33.733667600001063</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="U27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>88.174840074109795</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>33.733667600001063</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>33.733667600001063</v>
       </c>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="AC27" s="1" t="s">
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AE27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD27" s="1" t="s">
+      <c r="AF27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>66.357894554316161</v>
       </c>
@@ -3090,70 +3261,76 @@
         <v>18.861086188547322</v>
       </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>12.647441746483675</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>80.287345080305741</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>50.213398269962148</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>45.997220153037809</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>80.05990459745766</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>43.077974605572237</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>28.985863431092422</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="Y28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="AA28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>38.635623526249788</v>
       </c>
-      <c r="AA28">
+      <c r="AC28">
         <v>22.728752947500421</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <v>22.728752947500421</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AE28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD28" s="1" t="s">
+      <c r="AF28" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3182,55 +3359,61 @@
         <v>22.490424930434123</v>
       </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>13.432719345458295</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>81.988579389506953</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>57.270010789668824</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>43.495836007049363</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>79.142149288474201</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>33.187102618966129</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>32.009119765722922</v>
       </c>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="AC29" s="1" t="s">
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AE29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD29" s="1" t="s">
+      <c r="AF29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>52.079523928621683</v>
       </c>
@@ -3259,70 +3442,76 @@
         <v>19.94582486441162</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>10.615980198954095</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>65.686038457124582</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>45.236980785303494</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>35.448458696299028</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="U30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>73.428681905598609</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>31.97635774575599</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>28.160257081506785</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="Y30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="Z30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="AA30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z30">
+      <c r="AB30">
         <v>69.940933059898043</v>
       </c>
-      <c r="AA30">
+      <c r="AC30">
         <v>69.286211118585399</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <v>62.314236569384818</v>
       </c>
-      <c r="AC30" s="1" t="s">
+      <c r="AE30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD30" s="1" t="s">
+      <c r="AF30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>46.155986343191721</v>
       </c>
@@ -3351,70 +3540,76 @@
         <v>25.855813528947724</v>
       </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>12.427615518906109</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>78.374393987563892</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>45.284080871785385</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>34.381144832892986</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>83.400027179676613</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>49.407113063848826</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>33.171187328793557</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="Y31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z31">
+      <c r="AB31">
         <v>53.771651586385872</v>
       </c>
-      <c r="AA31">
+      <c r="AC31">
         <v>46.228348413614128</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <v>46.228348413614128</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>60.982848859673197</v>
       </c>
@@ -3443,65 +3638,71 @@
         <v>21.814042203713711</v>
       </c>
       <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>13.417174548090225</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>76.65411807590425</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>56.417067167051748</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>31.238020183554166</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="U32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>77.021269119390098</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>35.782755676630735</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>22.811659712072725</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="Y32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="Z32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y32" s="1"/>
-      <c r="Z32">
+      <c r="AA32" s="1"/>
+      <c r="AB32">
         <v>26.49433277493517</v>
       </c>
-      <c r="AA32">
+      <c r="AC32">
         <v>26.49433277493517</v>
       </c>
-      <c r="AC32" s="1" t="s">
+      <c r="AE32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD32" s="1" t="s">
+      <c r="AF32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>70.885892583961336</v>
       </c>
@@ -3530,55 +3731,61 @@
         <v>18.073785878759765</v>
       </c>
       <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>12.834491174313417</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>83.06993263646666</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>57.534726199659772</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>45.920285303988578</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>73.659551397529782</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>26.671738941201976</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>19.12291062892275</v>
       </c>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="AC33" s="1" t="s">
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AE33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD33" s="1" t="s">
+      <c r="AF33" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3607,55 +3814,61 @@
         <v>19.599614977999614</v>
       </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>12.632883996976268</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>81.650293010360343</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>48.192321403012706</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>46.105552447182362</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="S34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="T34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>66.051264129387562</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>26.761804428231063</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>24.782210696202313</v>
       </c>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="AC34" s="1" t="s">
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AE34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD34" s="1" t="s">
+      <c r="AF34" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>59.487021280381192</v>
       </c>
@@ -3684,65 +3897,71 @@
         <v>22.998348382638405</v>
       </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>13.778388485586502</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>70.596180425651383</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>54.938787547778809</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>34.01871163051328</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="T35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="U35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>73.987610514854509</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <v>29.220969115474222</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <v>21.741653318021605</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="Y35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="Z35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y35" s="1"/>
-      <c r="Z35">
+      <c r="AA35" s="1"/>
+      <c r="AB35">
         <v>26.49433277493517</v>
       </c>
-      <c r="AA35">
+      <c r="AC35">
         <v>26.49433277493517</v>
       </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AE35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD35" s="1" t="s">
+      <c r="AF35" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>48.865228302642521</v>
       </c>
@@ -3771,55 +3990,61 @@
         <v>25.240847908719243</v>
       </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>12.69186134756313</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>86.019250169232848</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>60.914479541210568</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>30.879455558126946</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="S36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="U36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <v>90.744821800850332</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <v>64.896903167747197</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <v>40.904063439663773</v>
       </c>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
-      <c r="AC36" s="1" t="s">
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AE36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD36" s="1" t="s">
+      <c r="AF36" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3848,57 +4073,63 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37">
         <v>76.65411807590425</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>56.417067167051748</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>31.238020183554166</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V37">
         <v>77.021269119390098</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <v>35.782755676630735</v>
       </c>
-      <c r="V37">
+      <c r="X37">
         <v>22.811659712072725</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC37" s="1" t="s">
+      <c r="Z37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD37" s="1" t="s">
+      <c r="AF37" s="1" t="s">
         <v>43</v>
       </c>
     </row>
